--- a/src/main/resources/excelFiles/login.xlsx
+++ b/src/main/resources/excelFiles/login.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Pass@2018-01-23 14:51:01.246</t>
+  </si>
+  <si>
+    <t>Pass@2018-01-24 13:59:34.347</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excelFiles/login.xlsx
+++ b/src/main/resources/excelFiles/login.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="3270" windowWidth="15885"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="4320" windowWidth="14535"/>
   </bookViews>
   <sheets>
     <sheet name="login" r:id="rId1" sheetId="1"/>
     <sheet name="InvalidCredentials" r:id="rId2" sheetId="2"/>
     <sheet name="ForgotPassword" r:id="rId3" sheetId="3"/>
+    <sheet name="MultipleRecordsExecute" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:C5"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="1">
   <si>
     <t>Username</t>
   </si>
@@ -34,7 +35,7 @@
     <t>MoolyaAdmin@123</t>
   </si>
   <si>
-    <t>Pass@</t>
+    <t>Pass@2018-02-14 17:25:17.921</t>
   </si>
   <si>
     <t>pradeep.dawaljee@raksan.in</t>
@@ -49,31 +50,37 @@
     <t>dfdsfdfd</t>
   </si>
   <si>
-    <t>Pass@2018-01-18 13:32:13.036</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-18 15:21:56.859</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-18 19:27:22.632</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-18 19:35:23.189</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-19 10:31:15.47</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-19 11:19:17.729</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-23 14:38:16.769</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-23 14:51:01.246</t>
-  </si>
-  <si>
-    <t>Pass@2018-01-24 13:59:34.347</t>
+    <t>data1@em</t>
+  </si>
+  <si>
+    <t>Pass1</t>
+  </si>
+  <si>
+    <t>data2@em</t>
+  </si>
+  <si>
+    <t>Pass2</t>
+  </si>
+  <si>
+    <t>data3@em</t>
+  </si>
+  <si>
+    <t>Pass3</t>
+  </si>
+  <si>
+    <t>data4@em</t>
+  </si>
+  <si>
+    <t>Pass4</t>
+  </si>
+  <si>
+    <t>data5@em</t>
+  </si>
+  <si>
+    <t>Pass5</t>
+  </si>
+  <si>
+    <t>Pass@2018-02-14 19:08:29.732</t>
   </si>
 </sst>
 </file>
@@ -81,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,6 +105,66 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +178,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,101 +210,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,97 +255,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,84 +436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +449,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,7 +551,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
@@ -553,139 +563,136 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="8" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="7" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="3" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="12" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="12" fontId="16" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="15" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="15" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1112,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1136,4 +1143,79 @@
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.7142857142857" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="data1@em" r:id="rId1" ref="A2"/>
+    <hyperlink display="data2@em" r:id="rId2" ref="A3"/>
+    <hyperlink display="data3@em" r:id="rId2" ref="A4"/>
+    <hyperlink display="data4@em" r:id="rId2" ref="A5"/>
+    <hyperlink display="data5@em" r:id="rId2" ref="A6"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/excelFiles/login.xlsx
+++ b/src/main/resources/excelFiles/login.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
   <si>
     <t>Username</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Pass@2018-02-14 19:08:29.732</t>
+  </si>
+  <si>
+    <t>Pass@2018-03-02 10:33:01.996</t>
+  </si>
+  <si>
+    <t>Pass@2018-03-08 12:01:10.458</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1162,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7142857142857" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/src/main/resources/excelFiles/login.xlsx
+++ b/src/main/resources/excelFiles/login.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Pass@2018-03-08 12:01:10.458</t>
+  </si>
+  <si>
+    <t>Pass@2018-03-13 17:31:35.533</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
